--- a/REF_RetoAcademia/Data/Config.xlsx
+++ b/REF_RetoAcademia/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\OneDrive\Documents\UiPath\REF_RetoAcademia\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Repositorio\Sesion1\UiPath\REF_RetoAcademia\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAFF7FE-6ACA-4CBC-A24A-A39960D1A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133F659F-2940-46B1-8DC5-328D57518FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="465" windowWidth="18690" windowHeight="10455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -221,9 +221,6 @@
     <t>AssetMail</t>
   </si>
   <si>
-    <t>Asset del Orquestador  donde se encuentran las credenciales del correo mail</t>
-  </si>
-  <si>
     <t>Correo que se usara para enviar los reportes</t>
   </si>
   <si>
@@ -264,13 +261,19 @@
   </si>
   <si>
     <t>Data\Output\ExceptionReport_RO.xlsx</t>
+  </si>
+  <si>
+    <t>Credenciales del para ingresar al ACME</t>
+  </si>
+  <si>
+    <t>Asset del Orquestador donde se encuentran las credenciales del correo mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,19 +297,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF464E55"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF464E55"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -328,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,9 +328,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -738,51 +725,51 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>68</v>
@@ -790,7 +777,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>587</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>70</v>
@@ -798,35 +788,35 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>587</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1811,8 +1801,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2035,26 +2023,26 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
